--- a/output/StructureDefinition-ClaimCabaRecupero.xlsx
+++ b/output/StructureDefinition-ClaimCabaRecupero.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6351" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6351" uniqueCount="791">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-12T16:20:05-03:00</t>
+    <t>2025-07-12T17:02:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -852,6 +852,14 @@
   </si>
   <si>
     <t>The provider may need to indicate their processing requirements so that the processor can indicate if they are unable to comply.</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/processpriority"/&gt;
+    &lt;code value="normal"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>The timeliness with which processing is required: stat, normal, deferred.</t>
@@ -5865,7 +5873,7 @@
         <v>20</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>20</v>
@@ -5883,10 +5891,10 @@
         <v>178</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5919,7 +5927,7 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>20</v>
@@ -5930,14 +5938,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5959,16 +5967,16 @@
         <v>164</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5996,10 +6004,10 @@
         <v>178</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -6017,7 +6025,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>77</v>
@@ -6043,10 +6051,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -6069,19 +6077,19 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>20</v>
@@ -6130,7 +6138,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -6156,10 +6164,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6265,10 +6273,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6376,14 +6384,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6405,10 +6413,10 @@
         <v>133</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N33" t="s" s="2">
         <v>136</v>
@@ -6463,7 +6471,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -6489,10 +6497,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6515,17 +6523,17 @@
         <v>20</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>20</v>
@@ -6574,7 +6582,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
@@ -6589,7 +6597,7 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>20</v>
@@ -6600,10 +6608,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6629,16 +6637,16 @@
         <v>164</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>20</v>
@@ -6666,10 +6674,10 @@
         <v>178</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>20</v>
@@ -6687,7 +6695,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -6713,10 +6721,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6742,16 +6750,16 @@
         <v>146</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>20</v>
@@ -6800,7 +6808,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
@@ -6826,10 +6834,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6852,17 +6860,17 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>20</v>
@@ -6911,7 +6919,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
@@ -6937,10 +6945,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6963,19 +6971,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -7024,7 +7032,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -7050,10 +7058,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7076,19 +7084,19 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -7137,7 +7145,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
@@ -7163,10 +7171,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7272,10 +7280,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7383,14 +7391,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7412,10 +7420,10 @@
         <v>133</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>136</v>
@@ -7470,7 +7478,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -7496,10 +7504,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7525,14 +7533,14 @@
         <v>164</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>20</v>
@@ -7560,10 +7568,10 @@
         <v>178</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>20</v>
@@ -7581,7 +7589,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>87</v>
@@ -7607,10 +7615,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7633,19 +7641,19 @@
         <v>20</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7694,7 +7702,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -7720,10 +7728,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7746,19 +7754,19 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>20</v>
@@ -7807,7 +7815,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7825,7 +7833,7 @@
         <v>20</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>20</v>
@@ -7833,10 +7841,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7859,17 +7867,17 @@
         <v>20</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>20</v>
@@ -7918,7 +7926,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7936,7 +7944,7 @@
         <v>20</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>20</v>
@@ -7944,10 +7952,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8053,10 +8061,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8164,10 +8172,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8275,10 +8283,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8386,10 +8394,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8497,10 +8505,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8608,10 +8616,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8634,17 +8642,17 @@
         <v>20</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>20</v>
@@ -8693,7 +8701,7 @@
         <v>20</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -8719,10 +8727,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8828,10 +8836,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8939,14 +8947,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8968,10 +8976,10 @@
         <v>133</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>136</v>
@@ -9026,7 +9034,7 @@
         <v>20</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -9052,10 +9060,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9078,17 +9086,17 @@
         <v>20</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>20</v>
@@ -9137,7 +9145,7 @@
         <v>20</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>87</v>
@@ -9163,10 +9171,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9192,14 +9200,14 @@
         <v>222</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>20</v>
@@ -9248,7 +9256,7 @@
         <v>20</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>87</v>
@@ -9266,7 +9274,7 @@
         <v>20</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>20</v>
@@ -9274,10 +9282,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9300,19 +9308,19 @@
         <v>20</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>20</v>
@@ -9361,7 +9369,7 @@
         <v>20</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -9387,10 +9395,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9416,16 +9424,16 @@
         <v>164</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>20</v>
@@ -9453,10 +9461,10 @@
         <v>178</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>20</v>
@@ -9474,7 +9482,7 @@
         <v>20</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -9500,10 +9508,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9529,14 +9537,14 @@
         <v>164</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>20</v>
@@ -9564,10 +9572,10 @@
         <v>178</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>20</v>
@@ -9585,7 +9593,7 @@
         <v>20</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
@@ -9611,14 +9619,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9637,19 +9645,19 @@
         <v>20</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>20</v>
@@ -9698,7 +9706,7 @@
         <v>20</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9713,7 +9721,7 @@
         <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>20</v>
@@ -9724,10 +9732,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9833,10 +9841,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9944,14 +9952,14 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9973,10 +9981,10 @@
         <v>133</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>136</v>
@@ -10031,7 +10039,7 @@
         <v>20</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
@@ -10057,10 +10065,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10083,17 +10091,17 @@
         <v>20</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>20</v>
@@ -10142,7 +10150,7 @@
         <v>20</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>87</v>
@@ -10168,10 +10176,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10197,16 +10205,16 @@
         <v>164</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>20</v>
@@ -10216,7 +10224,7 @@
         <v>20</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>20</v>
@@ -10234,10 +10242,10 @@
         <v>178</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>20</v>
@@ -10255,7 +10263,7 @@
         <v>20</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>87</v>
@@ -10281,10 +10289,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10310,14 +10318,14 @@
         <v>164</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>20</v>
@@ -10345,10 +10353,10 @@
         <v>178</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>20</v>
@@ -10366,7 +10374,7 @@
         <v>20</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -10392,10 +10400,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10418,13 +10426,13 @@
         <v>20</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10475,7 +10483,7 @@
         <v>20</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -10501,10 +10509,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10527,19 +10535,19 @@
         <v>20</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>20</v>
@@ -10576,7 +10584,7 @@
         <v>20</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AC70" s="2"/>
       <c r="AD70" t="s" s="2">
@@ -10586,7 +10594,7 @@
         <v>238</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -10612,13 +10620,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>20</v>
@@ -10640,19 +10648,19 @@
         <v>20</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>20</v>
@@ -10701,7 +10709,7 @@
         <v>20</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
@@ -10727,10 +10735,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10756,16 +10764,16 @@
         <v>164</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>20</v>
@@ -10793,10 +10801,10 @@
         <v>178</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>20</v>
@@ -10814,7 +10822,7 @@
         <v>20</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10840,10 +10848,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10866,17 +10874,17 @@
         <v>20</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P73" t="s" s="2">
         <v>20</v>
@@ -10925,7 +10933,7 @@
         <v>20</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10940,7 +10948,7 @@
         <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>20</v>
@@ -10951,10 +10959,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11060,10 +11068,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11171,14 +11179,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -11200,10 +11208,10 @@
         <v>133</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>136</v>
@@ -11258,7 +11266,7 @@
         <v>20</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -11284,10 +11292,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11310,19 +11318,19 @@
         <v>20</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>20</v>
@@ -11371,7 +11379,7 @@
         <v>20</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>87</v>
@@ -11397,10 +11405,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11426,14 +11434,14 @@
         <v>164</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>20</v>
@@ -11461,26 +11469,26 @@
         <v>178</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AC78" s="2"/>
       <c r="AD78" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>87</v>
@@ -11506,13 +11514,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>20</v>
@@ -11537,14 +11545,14 @@
         <v>164</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>20</v>
@@ -11573,7 +11581,7 @@
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>20</v>
@@ -11591,7 +11599,7 @@
         <v>20</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>87</v>
@@ -11617,10 +11625,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11646,16 +11654,16 @@
         <v>164</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>20</v>
@@ -11683,10 +11691,10 @@
         <v>178</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>20</v>
@@ -11704,7 +11712,7 @@
         <v>20</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
@@ -11730,10 +11738,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11759,14 +11767,14 @@
         <v>164</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="P81" t="s" s="2">
         <v>20</v>
@@ -11794,10 +11802,10 @@
         <v>178</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>20</v>
@@ -11815,7 +11823,7 @@
         <v>20</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
@@ -11841,10 +11849,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11870,16 +11878,16 @@
         <v>164</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O82" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P82" t="s" s="2">
         <v>20</v>
@@ -11907,10 +11915,10 @@
         <v>178</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>20</v>
@@ -11928,7 +11936,7 @@
         <v>20</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
@@ -11954,10 +11962,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11980,17 +11988,17 @@
         <v>20</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>20</v>
@@ -12039,7 +12047,7 @@
         <v>20</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -12065,10 +12073,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12174,10 +12182,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12285,14 +12293,14 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
@@ -12314,10 +12322,10 @@
         <v>133</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N86" t="s" s="2">
         <v>136</v>
@@ -12372,7 +12380,7 @@
         <v>20</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>77</v>
@@ -12398,10 +12406,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12424,17 +12432,17 @@
         <v>20</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>20</v>
@@ -12483,7 +12491,7 @@
         <v>20</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>87</v>
@@ -12509,10 +12517,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12538,16 +12546,16 @@
         <v>164</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>20</v>
@@ -12575,10 +12583,10 @@
         <v>178</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>20</v>
@@ -12596,7 +12604,7 @@
         <v>20</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
@@ -12622,10 +12630,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12651,14 +12659,14 @@
         <v>203</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P89" t="s" s="2">
         <v>20</v>
@@ -12707,7 +12715,7 @@
         <v>20</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12733,10 +12741,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12762,14 +12770,14 @@
         <v>164</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>20</v>
@@ -12797,26 +12805,26 @@
         <v>178</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="Z90" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AA90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AB90" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AC90" s="2"/>
       <c r="AD90" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>87</v>
@@ -12842,13 +12850,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>20</v>
@@ -12873,14 +12881,14 @@
         <v>164</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="P91" t="s" s="2">
         <v>20</v>
@@ -12909,7 +12917,7 @@
       </c>
       <c r="Y91" s="2"/>
       <c r="Z91" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>20</v>
@@ -12927,7 +12935,7 @@
         <v>20</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>87</v>
@@ -12953,10 +12961,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12979,17 +12987,17 @@
         <v>20</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>20</v>
@@ -13038,7 +13046,7 @@
         <v>20</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -13064,10 +13072,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13090,19 +13098,19 @@
         <v>88</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N93" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="O93" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>20</v>
@@ -13151,7 +13159,7 @@
         <v>20</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>87</v>
@@ -13172,15 +13180,15 @@
         <v>20</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -13286,10 +13294,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13397,14 +13405,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -13426,10 +13434,10 @@
         <v>133</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N96" t="s" s="2">
         <v>136</v>
@@ -13484,7 +13492,7 @@
         <v>20</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>77</v>
@@ -13510,10 +13518,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13536,17 +13544,17 @@
         <v>88</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>20</v>
@@ -13595,7 +13603,7 @@
         <v>20</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>87</v>
@@ -13621,10 +13629,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13647,19 +13655,19 @@
         <v>88</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N98" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O98" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>20</v>
@@ -13708,7 +13716,7 @@
         <v>20</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>87</v>
@@ -13734,10 +13742,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13763,16 +13771,16 @@
         <v>146</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>20</v>
@@ -13821,7 +13829,7 @@
         <v>20</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -13847,10 +13855,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13873,17 +13881,17 @@
         <v>88</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>20</v>
@@ -13932,7 +13940,7 @@
         <v>20</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>87</v>
@@ -13958,10 +13966,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14067,10 +14075,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14178,10 +14186,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14289,10 +14297,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -14400,10 +14408,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -14511,10 +14519,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14620,10 +14628,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14731,10 +14739,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -14760,16 +14768,16 @@
         <v>107</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O108" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>20</v>
@@ -14797,10 +14805,10 @@
         <v>158</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z108" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AA108" t="s" s="2">
         <v>20</v>
@@ -14818,7 +14826,7 @@
         <v>20</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>77</v>
@@ -14839,15 +14847,15 @@
         <v>20</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -14873,16 +14881,16 @@
         <v>164</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>20</v>
@@ -14910,10 +14918,10 @@
         <v>169</v>
       </c>
       <c r="Y109" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Z109" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AA109" t="s" s="2">
         <v>20</v>
@@ -14931,7 +14939,7 @@
         <v>20</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>77</v>
@@ -14952,15 +14960,15 @@
         <v>20</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -14986,16 +14994,16 @@
         <v>101</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="O110" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="P110" t="s" s="2">
         <v>20</v>
@@ -15008,7 +15016,7 @@
         <v>20</v>
       </c>
       <c r="T110" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="U110" t="s" s="2">
         <v>20</v>
@@ -15044,7 +15052,7 @@
         <v>20</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>77</v>
@@ -15065,15 +15073,15 @@
         <v>20</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -15099,13 +15107,13 @@
         <v>229</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15119,7 +15127,7 @@
         <v>20</v>
       </c>
       <c r="T111" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="U111" t="s" s="2">
         <v>20</v>
@@ -15155,7 +15163,7 @@
         <v>20</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>77</v>
@@ -15176,15 +15184,15 @@
         <v>20</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15210,10 +15218,10 @@
         <v>196</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -15264,7 +15272,7 @@
         <v>20</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>77</v>
@@ -15285,15 +15293,15 @@
         <v>20</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15319,13 +15327,13 @@
         <v>217</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15375,7 +15383,7 @@
         <v>20</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>77</v>
@@ -15396,15 +15404,15 @@
         <v>20</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15512,10 +15520,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15541,14 +15549,14 @@
         <v>229</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>20</v>
@@ -15597,7 +15605,7 @@
         <v>20</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>77</v>
@@ -15623,10 +15631,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15652,16 +15660,16 @@
         <v>229</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>20</v>
@@ -15710,7 +15718,7 @@
         <v>20</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>77</v>
@@ -15736,10 +15744,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15762,19 +15770,19 @@
         <v>20</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>20</v>
@@ -15823,7 +15831,7 @@
         <v>20</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>77</v>
@@ -15849,10 +15857,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -15875,17 +15883,17 @@
         <v>20</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="P118" t="s" s="2">
         <v>20</v>
@@ -15934,7 +15942,7 @@
         <v>20</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>77</v>
@@ -15960,10 +15968,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16069,10 +16077,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -16180,14 +16188,14 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" t="s" s="2">
@@ -16209,10 +16217,10 @@
         <v>133</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N121" t="s" s="2">
         <v>136</v>
@@ -16267,7 +16275,7 @@
         <v>20</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>77</v>
@@ -16293,10 +16301,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16319,19 +16327,19 @@
         <v>20</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="O122" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="P122" t="s" s="2">
         <v>20</v>
@@ -16380,7 +16388,7 @@
         <v>20</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>87</v>
@@ -16406,10 +16414,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16435,14 +16443,14 @@
         <v>164</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>20</v>
@@ -16470,10 +16478,10 @@
         <v>169</v>
       </c>
       <c r="Y123" t="s" s="2">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="Z123" t="s" s="2">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="AA123" t="s" s="2">
         <v>20</v>
@@ -16491,7 +16499,7 @@
         <v>20</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>77</v>
@@ -16517,10 +16525,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16543,17 +16551,17 @@
         <v>20</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="P124" t="s" s="2">
         <v>20</v>
@@ -16602,7 +16610,7 @@
         <v>20</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>77</v>
@@ -16628,10 +16636,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16654,17 +16662,17 @@
         <v>20</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>20</v>
@@ -16713,7 +16721,7 @@
         <v>20</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>77</v>
@@ -16739,10 +16747,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -16848,10 +16856,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -16959,14 +16967,14 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E128" s="2"/>
       <c r="F128" t="s" s="2">
@@ -16988,10 +16996,10 @@
         <v>133</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N128" t="s" s="2">
         <v>136</v>
@@ -17046,7 +17054,7 @@
         <v>20</v>
       </c>
       <c r="AF128" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>77</v>
@@ -17072,10 +17080,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17098,17 +17106,17 @@
         <v>20</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P129" t="s" s="2">
         <v>20</v>
@@ -17157,7 +17165,7 @@
         <v>20</v>
       </c>
       <c r="AF129" t="s" s="2">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>87</v>
@@ -17183,10 +17191,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17209,17 +17217,17 @@
         <v>20</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P130" t="s" s="2">
         <v>20</v>
@@ -17268,7 +17276,7 @@
         <v>20</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>77</v>
@@ -17294,10 +17302,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17320,17 +17328,17 @@
         <v>20</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" t="s" s="2">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="P131" t="s" s="2">
         <v>20</v>
@@ -17379,7 +17387,7 @@
         <v>20</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>77</v>
@@ -17405,10 +17413,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -17431,17 +17439,17 @@
         <v>20</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" t="s" s="2">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="P132" t="s" s="2">
         <v>20</v>
@@ -17490,7 +17498,7 @@
         <v>20</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>77</v>
@@ -17516,10 +17524,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -17542,17 +17550,17 @@
         <v>20</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>20</v>
@@ -17601,7 +17609,7 @@
         <v>20</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>77</v>
@@ -17627,10 +17635,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17656,14 +17664,14 @@
         <v>164</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P134" t="s" s="2">
         <v>20</v>
@@ -17691,10 +17699,10 @@
         <v>178</v>
       </c>
       <c r="Y134" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Z134" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AA134" t="s" s="2">
         <v>20</v>
@@ -17712,7 +17720,7 @@
         <v>20</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>77</v>
@@ -17738,10 +17746,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -17767,16 +17775,16 @@
         <v>164</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O135" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="P135" t="s" s="2">
         <v>20</v>
@@ -17804,10 +17812,10 @@
         <v>178</v>
       </c>
       <c r="Y135" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Z135" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AA135" t="s" s="2">
         <v>20</v>
@@ -17825,7 +17833,7 @@
         <v>20</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>77</v>
@@ -17851,14 +17859,14 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E136" s="2"/>
       <c r="F136" t="s" s="2">
@@ -17880,16 +17888,16 @@
         <v>164</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O136" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>20</v>
@@ -17917,10 +17925,10 @@
         <v>178</v>
       </c>
       <c r="Y136" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Z136" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AA136" t="s" s="2">
         <v>20</v>
@@ -17938,7 +17946,7 @@
         <v>20</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>87</v>
@@ -17964,10 +17972,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -17993,16 +18001,16 @@
         <v>164</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="O137" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P137" t="s" s="2">
         <v>20</v>
@@ -18030,10 +18038,10 @@
         <v>178</v>
       </c>
       <c r="Y137" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Z137" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AA137" t="s" s="2">
         <v>20</v>
@@ -18051,7 +18059,7 @@
         <v>20</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>77</v>
@@ -18077,10 +18085,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18106,16 +18114,16 @@
         <v>164</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O138" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="P138" t="s" s="2">
         <v>20</v>
@@ -18143,10 +18151,10 @@
         <v>178</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="Z138" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AA138" t="s" s="2">
         <v>20</v>
@@ -18164,7 +18172,7 @@
         <v>20</v>
       </c>
       <c r="AF138" t="s" s="2">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>77</v>
@@ -18190,10 +18198,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18216,17 +18224,17 @@
         <v>20</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="P139" t="s" s="2">
         <v>20</v>
@@ -18275,7 +18283,7 @@
         <v>20</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>77</v>
@@ -18301,10 +18309,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18327,17 +18335,17 @@
         <v>20</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="P140" t="s" s="2">
         <v>20</v>
@@ -18365,10 +18373,10 @@
         <v>178</v>
       </c>
       <c r="Y140" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="Z140" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>20</v>
@@ -18386,7 +18394,7 @@
         <v>20</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>77</v>
@@ -18404,7 +18412,7 @@
         <v>20</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AM140" t="s" s="2">
         <v>20</v>
@@ -18412,10 +18420,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18438,17 +18446,17 @@
         <v>20</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>20</v>
@@ -18497,7 +18505,7 @@
         <v>20</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>77</v>
@@ -18523,10 +18531,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -18549,17 +18557,17 @@
         <v>20</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N142" s="2"/>
       <c r="O142" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P142" t="s" s="2">
         <v>20</v>
@@ -18608,7 +18616,7 @@
         <v>20</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>77</v>
@@ -18634,10 +18642,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -18660,19 +18668,19 @@
         <v>20</v>
       </c>
       <c r="K143" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>20</v>
@@ -18721,7 +18729,7 @@
         <v>20</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>77</v>
@@ -18747,10 +18755,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -18773,19 +18781,19 @@
         <v>20</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P144" t="s" s="2">
         <v>20</v>
@@ -18834,7 +18842,7 @@
         <v>20</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>77</v>
@@ -18860,10 +18868,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -18886,17 +18894,17 @@
         <v>20</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P145" t="s" s="2">
         <v>20</v>
@@ -18945,7 +18953,7 @@
         <v>20</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>77</v>
@@ -18971,10 +18979,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19000,16 +19008,16 @@
         <v>164</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="P146" t="s" s="2">
         <v>20</v>
@@ -19037,10 +19045,10 @@
         <v>178</v>
       </c>
       <c r="Y146" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Z146" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="AA146" t="s" s="2">
         <v>20</v>
@@ -19058,7 +19066,7 @@
         <v>20</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>77</v>
@@ -19084,10 +19092,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19113,14 +19121,14 @@
         <v>164</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="P147" t="s" s="2">
         <v>20</v>
@@ -19148,10 +19156,10 @@
         <v>178</v>
       </c>
       <c r="Y147" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="Z147" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="AA147" t="s" s="2">
         <v>20</v>
@@ -19169,7 +19177,7 @@
         <v>20</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>77</v>
@@ -19195,10 +19203,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19221,19 +19229,19 @@
         <v>20</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="N148" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O148" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>20</v>
@@ -19282,7 +19290,7 @@
         <v>20</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>77</v>
@@ -19297,7 +19305,7 @@
         <v>99</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="AL148" t="s" s="2">
         <v>20</v>
@@ -19308,10 +19316,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -19334,17 +19342,17 @@
         <v>20</v>
       </c>
       <c r="K149" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P149" t="s" s="2">
         <v>20</v>
@@ -19393,7 +19401,7 @@
         <v>20</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>77</v>
@@ -19419,10 +19427,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -19528,10 +19536,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19639,14 +19647,14 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E152" s="2"/>
       <c r="F152" t="s" s="2">
@@ -19668,10 +19676,10 @@
         <v>133</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N152" t="s" s="2">
         <v>136</v>
@@ -19726,7 +19734,7 @@
         <v>20</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>77</v>
@@ -19752,10 +19760,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -19778,17 +19786,17 @@
         <v>20</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P153" t="s" s="2">
         <v>20</v>
@@ -19837,7 +19845,7 @@
         <v>20</v>
       </c>
       <c r="AF153" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>87</v>
@@ -19863,10 +19871,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -19892,14 +19900,14 @@
         <v>164</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>20</v>
@@ -19927,10 +19935,10 @@
         <v>178</v>
       </c>
       <c r="Y154" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Z154" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AA154" t="s" s="2">
         <v>20</v>
@@ -19948,7 +19956,7 @@
         <v>20</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>77</v>
@@ -19974,10 +19982,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20003,16 +20011,16 @@
         <v>164</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O155" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>20</v>
@@ -20040,10 +20048,10 @@
         <v>178</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Z155" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AA155" t="s" s="2">
         <v>20</v>
@@ -20061,7 +20069,7 @@
         <v>20</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>77</v>
@@ -20087,14 +20095,14 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="E156" s="2"/>
       <c r="F156" t="s" s="2">
@@ -20116,16 +20124,16 @@
         <v>164</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N156" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O156" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>20</v>
@@ -20153,10 +20161,10 @@
         <v>178</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Z156" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AA156" t="s" s="2">
         <v>20</v>
@@ -20174,7 +20182,7 @@
         <v>20</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>87</v>
@@ -20200,10 +20208,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -20229,16 +20237,16 @@
         <v>164</v>
       </c>
       <c r="L157" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N157" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="O157" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>20</v>
@@ -20266,10 +20274,10 @@
         <v>178</v>
       </c>
       <c r="Y157" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Z157" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AA157" t="s" s="2">
         <v>20</v>
@@ -20287,7 +20295,7 @@
         <v>20</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>77</v>
@@ -20313,10 +20321,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -20342,16 +20350,16 @@
         <v>164</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N158" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O158" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>20</v>
@@ -20379,10 +20387,10 @@
         <v>178</v>
       </c>
       <c r="Y158" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="Z158" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AA158" t="s" s="2">
         <v>20</v>
@@ -20400,7 +20408,7 @@
         <v>20</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>77</v>
@@ -20426,10 +20434,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -20452,17 +20460,17 @@
         <v>20</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>20</v>
@@ -20511,7 +20519,7 @@
         <v>20</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>77</v>
@@ -20537,10 +20545,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -20563,17 +20571,17 @@
         <v>20</v>
       </c>
       <c r="K160" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P160" t="s" s="2">
         <v>20</v>
@@ -20622,7 +20630,7 @@
         <v>20</v>
       </c>
       <c r="AF160" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="AG160" t="s" s="2">
         <v>77</v>
@@ -20648,10 +20656,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -20674,19 +20682,19 @@
         <v>20</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N161" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O161" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>20</v>
@@ -20735,7 +20743,7 @@
         <v>20</v>
       </c>
       <c r="AF161" t="s" s="2">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="AG161" t="s" s="2">
         <v>77</v>
@@ -20761,10 +20769,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -20787,19 +20795,19 @@
         <v>20</v>
       </c>
       <c r="K162" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L162" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M162" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N162" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O162" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P162" t="s" s="2">
         <v>20</v>
@@ -20848,7 +20856,7 @@
         <v>20</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>77</v>
@@ -20874,10 +20882,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -20900,17 +20908,17 @@
         <v>20</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P163" t="s" s="2">
         <v>20</v>
@@ -20959,7 +20967,7 @@
         <v>20</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>77</v>
@@ -20985,10 +20993,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -21011,17 +21019,17 @@
         <v>20</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>20</v>
@@ -21070,7 +21078,7 @@
         <v>20</v>
       </c>
       <c r="AF164" t="s" s="2">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="AG164" t="s" s="2">
         <v>77</v>
@@ -21096,10 +21104,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -21205,10 +21213,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -21316,14 +21324,14 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E167" s="2"/>
       <c r="F167" t="s" s="2">
@@ -21345,10 +21353,10 @@
         <v>133</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N167" t="s" s="2">
         <v>136</v>
@@ -21403,7 +21411,7 @@
         <v>20</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>77</v>
@@ -21429,10 +21437,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -21455,17 +21463,17 @@
         <v>20</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>20</v>
@@ -21514,7 +21522,7 @@
         <v>20</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>87</v>
@@ -21540,10 +21548,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -21569,14 +21577,14 @@
         <v>164</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M169" t="s" s="2">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="N169" s="2"/>
       <c r="O169" t="s" s="2">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P169" t="s" s="2">
         <v>20</v>
@@ -21604,10 +21612,10 @@
         <v>178</v>
       </c>
       <c r="Y169" t="s" s="2">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="Z169" t="s" s="2">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="AA169" t="s" s="2">
         <v>20</v>
@@ -21625,7 +21633,7 @@
         <v>20</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>77</v>
@@ -21651,10 +21659,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -21680,16 +21688,16 @@
         <v>164</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="N170" t="s" s="2">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="O170" t="s" s="2">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="P170" t="s" s="2">
         <v>20</v>
@@ -21717,10 +21725,10 @@
         <v>178</v>
       </c>
       <c r="Y170" t="s" s="2">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="Z170" t="s" s="2">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="AA170" t="s" s="2">
         <v>20</v>
@@ -21738,7 +21746,7 @@
         <v>20</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>77</v>
@@ -21764,10 +21772,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -21793,16 +21801,16 @@
         <v>164</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="O171" t="s" s="2">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="P171" t="s" s="2">
         <v>20</v>
@@ -21830,10 +21838,10 @@
         <v>178</v>
       </c>
       <c r="Y171" t="s" s="2">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="Z171" t="s" s="2">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="AA171" t="s" s="2">
         <v>20</v>
@@ -21851,7 +21859,7 @@
         <v>20</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>87</v>
@@ -21877,10 +21885,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -21906,16 +21914,16 @@
         <v>164</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="O172" t="s" s="2">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="P172" t="s" s="2">
         <v>20</v>
@@ -21943,10 +21951,10 @@
         <v>178</v>
       </c>
       <c r="Y172" t="s" s="2">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="Z172" t="s" s="2">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="AA172" t="s" s="2">
         <v>20</v>
@@ -21964,7 +21972,7 @@
         <v>20</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>77</v>
@@ -21990,10 +21998,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -22019,16 +22027,16 @@
         <v>164</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="O173" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>20</v>
@@ -22056,10 +22064,10 @@
         <v>178</v>
       </c>
       <c r="Y173" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="Z173" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AA173" t="s" s="2">
         <v>20</v>
@@ -22077,7 +22085,7 @@
         <v>20</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>77</v>
@@ -22103,10 +22111,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -22129,17 +22137,17 @@
         <v>20</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="P174" t="s" s="2">
         <v>20</v>
@@ -22188,7 +22196,7 @@
         <v>20</v>
       </c>
       <c r="AF174" t="s" s="2">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="AG174" t="s" s="2">
         <v>77</v>
@@ -22214,10 +22222,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -22240,17 +22248,17 @@
         <v>20</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="N175" s="2"/>
       <c r="O175" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="P175" t="s" s="2">
         <v>20</v>
@@ -22299,7 +22307,7 @@
         <v>20</v>
       </c>
       <c r="AF175" t="s" s="2">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="AG175" t="s" s="2">
         <v>77</v>
@@ -22325,10 +22333,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -22351,19 +22359,19 @@
         <v>20</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="N176" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="O176" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>20</v>
@@ -22412,7 +22420,7 @@
         <v>20</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>77</v>
@@ -22438,10 +22446,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -22464,19 +22472,19 @@
         <v>20</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="N177" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="O177" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>20</v>
@@ -22525,7 +22533,7 @@
         <v>20</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>77</v>
@@ -22551,10 +22559,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -22577,17 +22585,17 @@
         <v>20</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P178" t="s" s="2">
         <v>20</v>
@@ -22636,7 +22644,7 @@
         <v>20</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>77</v>
@@ -22662,10 +22670,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -22688,17 +22696,17 @@
         <v>20</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="N179" s="2"/>
       <c r="O179" t="s" s="2">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="P179" t="s" s="2">
         <v>20</v>
@@ -22747,7 +22755,7 @@
         <v>20</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>77</v>

--- a/output/StructureDefinition-ClaimCabaRecupero.xlsx
+++ b/output/StructureDefinition-ClaimCabaRecupero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-12T17:02:17-03:00</t>
+    <t>2025-07-14T12:58:17-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-ClaimCabaRecupero.xlsx
+++ b/output/StructureDefinition-ClaimCabaRecupero.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-14T12:58:17-03:00</t>
+    <t>2025-07-14T16:52:57-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
